--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-512811.7337683628</v>
+        <v>-515707.8320757886</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,52 +665,52 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="F2" t="n">
-        <v>12.27738790031057</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.93890542723724</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.401342158599131</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>13.93890542723724</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>13.93890542723724</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -741,62 +741,62 @@
         <v>13.93890542723724</v>
       </c>
       <c r="D3" t="n">
+        <v>13.93890542723724</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13.93890542723724</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>12.27738790031057</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13.93890542723724</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.27738790031057</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>13.93890542723724</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.27738790031057</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>13.93890542723724</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.26115480377223</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>54.28416617974037</v>
+        <v>47.40812043802894</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,58 +987,58 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>47.15831191777808</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="T6" t="n">
-        <v>55.26115480377223</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>1.515713233384492</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,61 +1060,61 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.67402515116257</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="H7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>42.76279030041251</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>26.23619181829162</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>34.93619783623065</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>95.43569238074747</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>123.49796651923</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>123.49796651923</v>
       </c>
       <c r="G8" t="n">
-        <v>75.24095622306587</v>
+        <v>13.34131652939028</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>123.4979665192291</v>
+        <v>123.49796651923</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.6600069453597</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4979665192291</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>123.4979665192291</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>123.4979665192291</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>123.4979665192291</v>
+        <v>123.49796651923</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>34.99970656577527</v>
+        <v>34.99970656577514</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>123.49796651923</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>123.49796651923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>73.77730234436174</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.4979665192291</v>
+        <v>73.77730234436258</v>
       </c>
     </row>
     <row r="10">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>123.49796651923</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.4979665192291</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>31.15548687443344</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.4886192508886</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>123.49796651923</v>
       </c>
       <c r="S10" t="n">
-        <v>123.4979665192291</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>108.7770089101378</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>123.49796651923</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65.13290278481492</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.4979665192291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>33.38304376059115</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>72.97362349455845</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249705</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>103.1340411809966</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,16 +1607,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>74.33933596523485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.592917841534</v>
@@ -1625,7 +1625,7 @@
         <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389939</v>
+        <v>28.90056660389948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740602</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
         <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339485</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>68.37359969972886</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512079</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853814</v>
+        <v>12.76005920853822</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>39.97157645072677</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942144</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396098</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>152.2832029527511</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2037931948048</v>
@@ -1856,7 +1856,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.55420402475</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295135</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W20" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X20" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452779</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W23" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453022</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
         <v>186.4872700401421</v>
@@ -2533,16 +2533,16 @@
         <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038396</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
         <v>117.0052706659984</v>
@@ -2722,16 +2722,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2767,16 +2767,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998808</v>
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545723</v>
@@ -3086,13 +3086,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3187,7 +3187,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
         <v>117.0052706659984</v>
@@ -3196,16 +3196,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221794</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3250,7 +3250,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3427,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943542</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3487,10 +3487,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894954</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
         <v>378.5542040247498</v>
@@ -3664,10 +3664,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943541</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894972</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3901,10 +3901,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659973</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3961,10 +3961,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -4186,7 +4186,7 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4313,37 +4313,37 @@
         <v>41.67591925719419</v>
       </c>
       <c r="E2" t="n">
-        <v>41.67591925719419</v>
+        <v>27.5962168054394</v>
       </c>
       <c r="F2" t="n">
-        <v>29.27451733768856</v>
+        <v>20.65071605623593</v>
       </c>
       <c r="G2" t="n">
-        <v>15.19481488593377</v>
+        <v>6.571013604481132</v>
       </c>
       <c r="H2" t="n">
-        <v>15.19481488593377</v>
+        <v>1.11511243417898</v>
       </c>
       <c r="I2" t="n">
         <v>1.11511243417898</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11511243417898</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="K2" t="n">
-        <v>1.11511243417898</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11511243417898</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="M2" t="n">
-        <v>14.91462880714385</v>
+        <v>28.15658896301923</v>
       </c>
       <c r="N2" t="n">
-        <v>28.71414518010872</v>
+        <v>41.95610533598411</v>
       </c>
       <c r="O2" t="n">
-        <v>28.71414518010872</v>
+        <v>41.95610533598411</v>
       </c>
       <c r="P2" t="n">
         <v>41.95610533598411</v>
@@ -4352,10 +4352,10 @@
         <v>55.75562170894898</v>
       </c>
       <c r="R2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="S2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="T2" t="n">
         <v>41.67591925719419</v>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.5962168054394</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5165143536846</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593377</v>
       </c>
       <c r="E3" t="n">
         <v>1.11511243417898</v>
@@ -4434,25 +4434,25 @@
         <v>55.75562170894898</v>
       </c>
       <c r="S3" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="T3" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="U3" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="V3" t="n">
-        <v>41.67591925719419</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="W3" t="n">
-        <v>41.67591925719419</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="X3" t="n">
-        <v>41.67591925719419</v>
+        <v>43.35421978944336</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.5962168054394</v>
+        <v>43.35421978944336</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.5962168054394</v>
+        <v>41.67591925719419</v>
       </c>
       <c r="C4" t="n">
-        <v>27.5962168054394</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="D4" t="n">
-        <v>15.19481488593377</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="E4" t="n">
-        <v>15.19481488593377</v>
+        <v>29.27451733768856</v>
       </c>
       <c r="F4" t="n">
         <v>15.19481488593377</v>
@@ -4489,16 +4489,16 @@
         <v>1.11511243417898</v>
       </c>
       <c r="K4" t="n">
-        <v>1.11511243417898</v>
+        <v>14.91462880714385</v>
       </c>
       <c r="L4" t="n">
-        <v>14.35707259005436</v>
+        <v>28.71414518010872</v>
       </c>
       <c r="M4" t="n">
-        <v>28.15658896301923</v>
+        <v>42.5136615530736</v>
       </c>
       <c r="N4" t="n">
-        <v>41.95610533598411</v>
+        <v>42.5136615530736</v>
       </c>
       <c r="O4" t="n">
         <v>55.75562170894898</v>
@@ -4507,22 +4507,22 @@
         <v>55.75562170894898</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="R4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="S4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="T4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="U4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="V4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894898</v>
       </c>
       <c r="W4" t="n">
         <v>41.67591925719419</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.0727317615872</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="C5" t="n">
-        <v>115.0727317615872</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="D5" t="n">
-        <v>115.0727317615872</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="E5" t="n">
-        <v>115.0727317615872</v>
+        <v>59.25338347494863</v>
       </c>
       <c r="F5" t="n">
-        <v>59.25338347494863</v>
+        <v>52.30788272574516</v>
       </c>
       <c r="G5" t="n">
         <v>4.420892384301778</v>
@@ -4565,19 +4565,19 @@
         <v>4.420892384301778</v>
       </c>
       <c r="J5" t="n">
-        <v>8.163703509554852</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="K5" t="n">
-        <v>8.163703509554852</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="L5" t="n">
-        <v>24.00601094946761</v>
+        <v>20.26319982421454</v>
       </c>
       <c r="M5" t="n">
-        <v>73.30306790632105</v>
+        <v>69.56025678106798</v>
       </c>
       <c r="N5" t="n">
-        <v>128.0116111620555</v>
+        <v>124.2688000368025</v>
       </c>
       <c r="O5" t="n">
         <v>166.3360759593544</v>
@@ -4610,7 +4610,7 @@
         <v>170.8920800482259</v>
       </c>
       <c r="Y5" t="n">
-        <v>170.8920800482259</v>
+        <v>115.0727317615872</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>60.2402406709404</v>
       </c>
       <c r="G6" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H6" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I6" t="n">
         <v>4.420892384301778</v>
@@ -4656,10 +4656,10 @@
         <v>105.4519767951905</v>
       </c>
       <c r="N6" t="n">
-        <v>137.5961796025268</v>
+        <v>160.160520050925</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3047228582613</v>
+        <v>214.8690633066595</v>
       </c>
       <c r="P6" t="n">
         <v>221.0446192150889</v>
@@ -4668,28 +4668,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R6" t="n">
-        <v>173.4099607122828</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="S6" t="n">
-        <v>117.5906124256442</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="T6" t="n">
-        <v>61.77126413900555</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="U6" t="n">
-        <v>61.77126413900555</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="V6" t="n">
-        <v>61.77126413900555</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="W6" t="n">
-        <v>61.77126413900555</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="X6" t="n">
-        <v>60.2402406709404</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.2402406709404</v>
+        <v>109.4059226418117</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.2543266347634</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="C7" t="n">
-        <v>159.2543266347634</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="D7" t="n">
-        <v>159.2543266347634</v>
+        <v>53.58657435517306</v>
       </c>
       <c r="E7" t="n">
-        <v>159.2543266347634</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F7" t="n">
-        <v>159.2543266347634</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G7" t="n">
-        <v>103.4349783481248</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H7" t="n">
-        <v>47.61563006148614</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I7" t="n">
-        <v>47.61563006148614</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="J7" t="n">
         <v>4.420892384301778</v>
       </c>
       <c r="K7" t="n">
-        <v>4.420892384301778</v>
+        <v>59.12943564003628</v>
       </c>
       <c r="L7" t="n">
-        <v>56.91898944788542</v>
+        <v>111.6275327036199</v>
       </c>
       <c r="M7" t="n">
         <v>111.6275327036199</v>
       </c>
       <c r="N7" t="n">
+        <v>111.6275327036199</v>
+      </c>
+      <c r="O7" t="n">
         <v>166.3360759593544</v>
-      </c>
-      <c r="O7" t="n">
-        <v>221.0446192150889</v>
       </c>
       <c r="P7" t="n">
         <v>221.0446192150889</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.5434153582287</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="R7" t="n">
-        <v>194.5434153582287</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="S7" t="n">
-        <v>194.5434153582287</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="T7" t="n">
-        <v>194.5434153582287</v>
+        <v>165.2252709284503</v>
       </c>
       <c r="U7" t="n">
-        <v>194.5434153582287</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="V7" t="n">
-        <v>194.5434153582287</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="W7" t="n">
-        <v>159.2543266347634</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="X7" t="n">
-        <v>159.2543266347634</v>
+        <v>109.4059226418117</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.2543266347634</v>
+        <v>109.4059226418117</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="C8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="D8" t="n">
-        <v>217.5717246791206</v>
+        <v>397.5921768034376</v>
       </c>
       <c r="E8" t="n">
-        <v>217.5717246791206</v>
+        <v>272.8467560769427</v>
       </c>
       <c r="F8" t="n">
-        <v>210.6262239299171</v>
+        <v>148.1013353504477</v>
       </c>
       <c r="G8" t="n">
-        <v>134.6252580480324</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="H8" t="n">
-        <v>134.6252580480324</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="I8" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="J8" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="K8" t="n">
-        <v>38.9959884552847</v>
+        <v>38.99598845528521</v>
       </c>
       <c r="L8" t="n">
-        <v>112.0189104208362</v>
+        <v>112.0189104208371</v>
       </c>
       <c r="M8" t="n">
-        <v>224.9404185623612</v>
+        <v>224.9404185623628</v>
       </c>
       <c r="N8" t="n">
-        <v>344.302923140251</v>
+        <v>344.3029231402533</v>
       </c>
       <c r="O8" t="n">
-        <v>443.6782902435663</v>
+        <v>443.6782902435692</v>
       </c>
       <c r="P8" t="n">
-        <v>493.9918660769164</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="Q8" t="n">
-        <v>493.9918660769164</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="R8" t="n">
-        <v>467.0625661321087</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="S8" t="n">
-        <v>342.3171454056146</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="T8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="U8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="V8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="W8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="X8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="Y8" t="n">
-        <v>217.5717246791206</v>
+        <v>493.9918660769199</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.3706787745264</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="C9" t="n">
-        <v>134.6252580480324</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="D9" t="n">
-        <v>134.6252580480324</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="E9" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="F9" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="G9" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="H9" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="I9" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="J9" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="K9" t="n">
-        <v>41.18578105650872</v>
+        <v>41.18578105650909</v>
       </c>
       <c r="L9" t="n">
-        <v>77.68079595846085</v>
+        <v>129.6030269567464</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9437828124977</v>
+        <v>251.8660138107841</v>
       </c>
       <c r="N9" t="n">
-        <v>322.2067696665345</v>
+        <v>322.2067696665371</v>
       </c>
       <c r="O9" t="n">
-        <v>428.2310777861143</v>
+        <v>428.2310777861173</v>
       </c>
       <c r="P9" t="n">
-        <v>493.9918660769164</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="Q9" t="n">
-        <v>493.9918660769164</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="R9" t="n">
-        <v>458.6386271215879</v>
+        <v>458.6386271215915</v>
       </c>
       <c r="S9" t="n">
-        <v>458.6386271215879</v>
+        <v>333.8932063950965</v>
       </c>
       <c r="T9" t="n">
-        <v>458.6386271215879</v>
+        <v>333.8932063950965</v>
       </c>
       <c r="U9" t="n">
-        <v>458.6386271215879</v>
+        <v>209.1477856686016</v>
       </c>
       <c r="V9" t="n">
-        <v>458.6386271215879</v>
+        <v>209.1477856686016</v>
       </c>
       <c r="W9" t="n">
-        <v>458.6386271215879</v>
+        <v>209.1477856686016</v>
       </c>
       <c r="X9" t="n">
-        <v>384.1160995010205</v>
+        <v>209.1477856686016</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.3706787745264</v>
+        <v>134.6252580480333</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.0954468100864</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="C10" t="n">
-        <v>166.0954468100864</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="D10" t="n">
-        <v>166.0954468100864</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="E10" t="n">
-        <v>166.0954468100864</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="F10" t="n">
-        <v>166.0954468100864</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0954468100864</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="H10" t="n">
-        <v>166.0954468100864</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="I10" t="n">
-        <v>41.35002608359231</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="J10" t="n">
-        <v>9.879837321538329</v>
+        <v>9.879837321538398</v>
       </c>
       <c r="K10" t="n">
-        <v>9.879837321538329</v>
+        <v>89.03061886826205</v>
       </c>
       <c r="L10" t="n">
-        <v>132.1428241755751</v>
+        <v>211.2936057222997</v>
       </c>
       <c r="M10" t="n">
-        <v>254.4058110296119</v>
+        <v>211.2936057222997</v>
       </c>
       <c r="N10" t="n">
-        <v>376.6687978836487</v>
+        <v>269.0762680109945</v>
       </c>
       <c r="O10" t="n">
-        <v>391.3392548650288</v>
+        <v>391.3392548650321</v>
       </c>
       <c r="P10" t="n">
-        <v>493.9918660769164</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="Q10" t="n">
-        <v>481.3770991568269</v>
+        <v>493.9918660769199</v>
       </c>
       <c r="R10" t="n">
-        <v>481.3770991568269</v>
+        <v>369.246445350425</v>
       </c>
       <c r="S10" t="n">
-        <v>356.6316784303329</v>
+        <v>369.246445350425</v>
       </c>
       <c r="T10" t="n">
-        <v>356.6316784303329</v>
+        <v>259.3706787745282</v>
       </c>
       <c r="U10" t="n">
-        <v>356.6316784303329</v>
+        <v>259.3706787745282</v>
       </c>
       <c r="V10" t="n">
-        <v>356.6316784303329</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="W10" t="n">
-        <v>356.6316784303329</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="X10" t="n">
-        <v>290.8408675365804</v>
+        <v>134.6252580480333</v>
       </c>
       <c r="Y10" t="n">
-        <v>166.0954468100864</v>
+        <v>134.6252580480333</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.62132134232</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
         <v>108.5090151927147</v>
@@ -5036,55 +5036,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3181.594906913448</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3181.594906913448</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3181.594906913448</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2828.826251643333</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2455.360493382253</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y11" t="n">
-        <v>2065.221161406442</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.4482993600904</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760401</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
         <v>1735.608663915319</v>
@@ -5233,16 +5233,16 @@
         <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046016</v>
+        <v>970.054693404601</v>
       </c>
       <c r="W13" t="n">
-        <v>865.8788942318776</v>
+        <v>680.6375233676405</v>
       </c>
       <c r="X13" t="n">
-        <v>637.8893433338602</v>
+        <v>452.6479724696231</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.0967641903301</v>
+        <v>231.855393326093</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1684.509947535068</v>
+        <v>2336.647924733508</v>
       </c>
       <c r="C14" t="n">
-        <v>1609.419709186346</v>
+        <v>1967.685407793097</v>
       </c>
       <c r="D14" t="n">
         <v>1609.419709186346</v>
@@ -5264,7 +5264,7 @@
         <v>1223.631456588102</v>
       </c>
       <c r="F14" t="n">
-        <v>812.6455517984942</v>
+        <v>812.6455517984944</v>
       </c>
       <c r="G14" t="n">
         <v>397.9052307464398</v>
@@ -5273,55 +5273,55 @@
         <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J14" t="n">
         <v>291.0377674773526</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720056001</v>
+        <v>666.264472005599</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645701</v>
+        <v>1168.668140645699</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275289</v>
+        <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235394</v>
+        <v>2364.220579235391</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163078</v>
+        <v>2922.039463163074</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140408</v>
+        <v>3363.623974140403</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049518</v>
+        <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584654</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045199</v>
+        <v>3623.805524045194</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.281671577581</v>
+        <v>3419.281671577575</v>
       </c>
       <c r="U14" t="n">
-        <v>3165.777765179653</v>
+        <v>3165.777765179648</v>
       </c>
       <c r="V14" t="n">
-        <v>2834.714877836082</v>
+        <v>3165.777765179648</v>
       </c>
       <c r="W14" t="n">
-        <v>2834.714877836082</v>
+        <v>3165.777765179648</v>
       </c>
       <c r="X14" t="n">
-        <v>2461.249119575002</v>
+        <v>2792.312006918568</v>
       </c>
       <c r="Y14" t="n">
-        <v>2071.10978759919</v>
+        <v>2723.24776479763</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718615</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J15" t="n">
-        <v>184.662920980762</v>
+        <v>184.6629209807617</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628292</v>
+        <v>451.0514990628285</v>
       </c>
       <c r="L15" t="n">
-        <v>754.5001060146185</v>
+        <v>855.5663578417086</v>
       </c>
       <c r="M15" t="n">
-        <v>1245.906734648575</v>
+        <v>1066.032731952775</v>
       </c>
       <c r="N15" t="n">
-        <v>1764.72807943216</v>
+        <v>1584.85407673636</v>
       </c>
       <c r="O15" t="n">
-        <v>2217.128454733394</v>
+        <v>2037.254452037593</v>
       </c>
       <c r="P15" t="n">
-        <v>2560.886573990975</v>
+        <v>2381.012571295174</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.1372332955866</v>
+        <v>427.35234489811</v>
       </c>
       <c r="C16" t="n">
-        <v>392.2010503676795</v>
+        <v>427.35234489811</v>
       </c>
       <c r="D16" t="n">
-        <v>242.084410955344</v>
+        <v>427.35234489811</v>
       </c>
       <c r="E16" t="n">
-        <v>242.084410955344</v>
+        <v>386.9770151499011</v>
       </c>
       <c r="F16" t="n">
-        <v>242.084410955344</v>
+        <v>386.9770151499011</v>
       </c>
       <c r="G16" t="n">
-        <v>74.53055601169308</v>
+        <v>219.4231602062504</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169308</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525473</v>
+        <v>129.976586552547</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923174</v>
+        <v>350.928283792317</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553109</v>
+        <v>689.1968198553104</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479733</v>
+        <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229308</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776859</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135874</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389596</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304786</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="S16" t="n">
-        <v>1996.937179304786</v>
+        <v>1890.979338613558</v>
       </c>
       <c r="T16" t="n">
-        <v>1843.115762180795</v>
+        <v>1890.979338613558</v>
       </c>
       <c r="U16" t="n">
-        <v>1554.021021579982</v>
+        <v>1601.884598012745</v>
       </c>
       <c r="V16" t="n">
-        <v>1299.336533374095</v>
+        <v>1347.200109806858</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.919363337134</v>
+        <v>1057.782939769897</v>
       </c>
       <c r="X16" t="n">
-        <v>781.9298124391167</v>
+        <v>829.7933888718799</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.1372332955866</v>
+        <v>609.0008097283497</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216582</v>
@@ -5501,7 +5501,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
@@ -5513,10 +5513,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5525,13 +5525,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5546,19 +5546,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
         <v>84.98040897511622</v>
@@ -5595,22 +5595,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>922.4654228388466</v>
+        <v>713.6174808275667</v>
       </c>
       <c r="M18" t="n">
-        <v>1471.383887449136</v>
+        <v>1262.535945437856</v>
       </c>
       <c r="N18" t="n">
-        <v>2049.239235375538</v>
+        <v>1840.391293364258</v>
       </c>
       <c r="O18" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
@@ -5674,13 +5674,13 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
@@ -5689,25 +5689,25 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
         <v>1407.504522645591</v>
@@ -5735,13 +5735,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5753,22 +5753,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767229</v>
@@ -5780,22 +5780,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857001</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502081</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477698</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609026</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.684995803978</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315362</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749419</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897908</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5990,25 +5990,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755811</v>
@@ -6069,25 +6069,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L24" t="n">
-        <v>538.7790385694436</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M24" t="n">
-        <v>1087.697503179733</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
@@ -6148,10 +6148,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6163,34 +6163,34 @@
         <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028691</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233287</v>
@@ -6245,13 +6245,13 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T26" t="n">
         <v>4017.391409283564</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="L27" t="n">
-        <v>538.7790385694436</v>
+        <v>326.5159252754111</v>
       </c>
       <c r="M27" t="n">
-        <v>1087.697503179733</v>
+        <v>875.4343898857002</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042766</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443594</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T29" t="n">
         <v>4017.391409283564</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6555,13 +6555,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6698,52 +6698,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6792,7 +6792,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
@@ -6859,34 +6859,34 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237501</v>
@@ -6901,7 +6901,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796654</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162817</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511402</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7023,19 +7023,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O36" t="n">
-        <v>2100.171002464469</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P36" t="n">
-        <v>2487.272558016625</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477709</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609038</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042782</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O37" t="n">
         <v>2087.878830313935</v>
@@ -7114,7 +7114,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352542</v>
@@ -7126,7 +7126,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7138,7 +7138,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076837</v>
@@ -7178,46 +7178,46 @@
         <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477708</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7354,10 +7354,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
         <v>2144.901839127668</v>
@@ -7366,16 +7366,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7412,22 +7412,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7500,16 +7500,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.315654538067</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477708</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
         <v>617.6685920609049</v>
@@ -7555,13 +7555,13 @@
         <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
@@ -7570,10 +7570,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7588,31 +7588,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7655,16 +7655,16 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7676,22 +7676,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1968.593900456</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7825,19 +7825,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
         <v>1664.992195357083</v>
@@ -7846,7 +7846,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
         <v>1022.581387254981</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.29236085646849</v>
+        <v>79.23126628370574</v>
       </c>
       <c r="K2" t="n">
         <v>46.60529509404796</v>
@@ -7985,7 +7985,7 @@
         <v>20.54348275905164</v>
       </c>
       <c r="M2" t="n">
-        <v>4.808157550421527</v>
+        <v>4.244969452351333</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0.307847721892557</v>
       </c>
       <c r="P2" t="n">
-        <v>48.4879540546199</v>
+        <v>35.11223672545285</v>
       </c>
       <c r="Q2" t="n">
         <v>88.9660729197108</v>
@@ -8137,19 +8137,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>57.9369253307096</v>
+        <v>71.87583075794684</v>
       </c>
       <c r="L4" t="n">
-        <v>57.30715830034968</v>
+        <v>57.87034639841987</v>
       </c>
       <c r="M4" t="n">
         <v>56.96725532498971</v>
       </c>
       <c r="N4" t="n">
-        <v>48.00724248301907</v>
+        <v>34.06833705578183</v>
       </c>
       <c r="O4" t="n">
-        <v>65.92480045234984</v>
+        <v>65.36161235427966</v>
       </c>
       <c r="P4" t="n">
         <v>63.73743033232117</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.41751032781315</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3.780617298235441</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>101.1290019093975</v>
       </c>
       <c r="L7" t="n">
         <v>81.51555695358093</v>
       </c>
       <c r="M7" t="n">
-        <v>82.00569282084165</v>
+        <v>26.74453801706942</v>
       </c>
       <c r="N7" t="n">
-        <v>73.43287262928449</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O7" t="n">
         <v>92.56394902735028</v>
       </c>
       <c r="P7" t="n">
-        <v>51.173501012562</v>
+        <v>106.4346558163342</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>14.57275013783101</v>
+        <v>14.5727501378307</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.49428940010387</v>
+        <v>10.49428940010347</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>27.68735636794386</v>
+        <v>27.68735636794368</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.02005147453508</v>
+        <v>6.020051474534853</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,19 +8611,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>26.79348195402278</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5765222805262</v>
+        <v>127.5765222805269</v>
       </c>
       <c r="M10" t="n">
-        <v>124.5070367499854</v>
+        <v>1.009070230756066</v>
       </c>
       <c r="N10" t="n">
-        <v>116.546148460788</v>
+        <v>51.41450748569468</v>
       </c>
       <c r="O10" t="n">
-        <v>28.91578588816548</v>
+        <v>137.5951089918598</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>170.534926379029</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>296.7574771839106</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696679</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>183.3889571555944</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>290.9335558057728</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>317.8643389563247</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>106.4623861958424</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526119</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434406</v>
+        <v>91.91693778434403</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396098</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>66.63555381012242</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>5.186961971048731e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.430056156299543e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-2.223998762929114e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.012949724099599e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.238209617644316e-13</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1018504.801291951</v>
+        <v>1018504.80129195</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1161657.357110244</v>
+        <v>1161657.357110243</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="E2" t="n">
-        <v>238697.9692796444</v>
+        <v>238697.9692796445</v>
       </c>
       <c r="F2" t="n">
-        <v>251576.4804979261</v>
+        <v>251576.4804979258</v>
       </c>
       <c r="G2" t="n">
         <v>287364.6194524994</v>
       </c>
       <c r="H2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="I2" t="n">
+        <v>287364.6194524989</v>
+      </c>
+      <c r="J2" t="n">
         <v>287364.6194524994</v>
-      </c>
-      <c r="I2" t="n">
-        <v>287364.6194524995</v>
-      </c>
-      <c r="J2" t="n">
-        <v>287364.6194524996</v>
       </c>
       <c r="K2" t="n">
         <v>287364.6194524994</v>
       </c>
       <c r="L2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="M2" t="n">
         <v>287364.6194524996</v>
-      </c>
-      <c r="M2" t="n">
-        <v>287364.6194524993</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524994</v>
@@ -26369,16 +26369,16 @@
         <v>65806.79407012099</v>
       </c>
       <c r="D3" t="n">
-        <v>99167.35190091991</v>
+        <v>99167.35190092097</v>
       </c>
       <c r="E3" t="n">
-        <v>694911.1668181714</v>
+        <v>694911.1668181701</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654417</v>
+        <v>93369.88484654319</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975327</v>
+        <v>143964.0818975337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3647.030971604062</v>
+        <v>3647.030971604087</v>
       </c>
       <c r="K3" t="n">
-        <v>10635.02467754001</v>
+        <v>10635.02467754006</v>
       </c>
       <c r="L3" t="n">
-        <v>42558.28479564792</v>
+        <v>42558.28479564817</v>
       </c>
       <c r="M3" t="n">
-        <v>176412.3810436149</v>
+        <v>176412.3810436146</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613194</v>
+        <v>24549.15438613172</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.5945687594</v>
+        <v>31434.59456875972</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>349671.7072326378</v>
       </c>
       <c r="C4" t="n">
-        <v>329990.1586268985</v>
+        <v>329990.1586268987</v>
       </c>
       <c r="D4" t="n">
-        <v>299211.1702620676</v>
+        <v>299211.1702620672</v>
       </c>
       <c r="E4" t="n">
-        <v>12820.12292715289</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="F4" t="n">
-        <v>12871.99050565125</v>
+        <v>12871.9905056513</v>
       </c>
       <c r="G4" t="n">
         <v>44009.48294107156</v>
       </c>
       <c r="H4" t="n">
+        <v>44009.48294107148</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44009.48294107152</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44009.48294107159</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44009.48294107158</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44009.48294107163</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44009.48294107158</v>
+      </c>
+      <c r="N4" t="n">
         <v>44009.48294107155</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>44009.48294107156</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44009.4829410716</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44009.4829410716</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44009.48294107158</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44009.48294107163</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44009.48294107163</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44009.48294107155</v>
       </c>
       <c r="P4" t="n">
         <v>44009.48294107158</v>
@@ -26473,43 +26473,43 @@
         <v>45639.02497530233</v>
       </c>
       <c r="D5" t="n">
-        <v>51772.57201481659</v>
+        <v>51772.57201481666</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390712</v>
+        <v>82183.39720390702</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-435757.9660049811</v>
+        <v>-435757.9660049812</v>
       </c>
       <c r="C6" t="n">
         <v>-154071.3582198228</v>
       </c>
       <c r="D6" t="n">
-        <v>-162786.4747253048</v>
+        <v>-162786.4747253054</v>
       </c>
       <c r="E6" t="n">
-        <v>-543339.6610270732</v>
+        <v>-543687.279956878</v>
       </c>
       <c r="F6" t="n">
-        <v>63151.20794182357</v>
+        <v>62895.57837786301</v>
       </c>
       <c r="G6" t="n">
-        <v>4284.620511739849</v>
+        <v>4284.620511738904</v>
       </c>
       <c r="H6" t="n">
-        <v>148248.7024092726</v>
+        <v>148248.7024092725</v>
       </c>
       <c r="I6" t="n">
-        <v>148248.7024092728</v>
+        <v>148248.7024092721</v>
       </c>
       <c r="J6" t="n">
-        <v>144601.6714376687</v>
+        <v>144601.6714376684</v>
       </c>
       <c r="K6" t="n">
         <v>137613.6777317325</v>
       </c>
       <c r="L6" t="n">
-        <v>105690.4176136248</v>
+        <v>105690.4176136243</v>
       </c>
       <c r="M6" t="n">
-        <v>-28163.67863434256</v>
+        <v>-28163.67863434194</v>
       </c>
       <c r="N6" t="n">
-        <v>123699.5480231404</v>
+        <v>123699.5480231407</v>
       </c>
       <c r="O6" t="n">
-        <v>116814.1078405131</v>
+        <v>116814.1078405129</v>
       </c>
       <c r="P6" t="n">
         <v>148248.7024092726</v>
@@ -26701,31 +26701,31 @@
         <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>487.9034702040118</v>
+        <v>487.9034702040127</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808275</v>
+        <v>1171.567643808273</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26793,13 +26793,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="D4" t="n">
-        <v>123.4979665192291</v>
+        <v>123.49796651923</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461635</v>
+        <v>931.6319501461621</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26820,10 +26820,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>57.60671140298479</v>
       </c>
       <c r="D3" t="n">
-        <v>91.04352693644375</v>
+        <v>91.04352693644466</v>
       </c>
       <c r="E3" t="n">
-        <v>601.8732303892865</v>
+        <v>601.8732303892854</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497632</v>
+        <v>81.79094321497541</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118484</v>
+        <v>106.5922268118493</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>41.32224937653498</v>
       </c>
       <c r="D4" t="n">
-        <v>68.23681171545688</v>
+        <v>68.23681171545775</v>
       </c>
       <c r="E4" t="n">
-        <v>707.903488883064</v>
+        <v>707.9034888830627</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438704</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427893</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723702</v>
       </c>
       <c r="K4" t="n">
         <v>41.32224937653498</v>
       </c>
       <c r="L4" t="n">
-        <v>68.23681171545688</v>
+        <v>68.23681171545797</v>
       </c>
       <c r="M4" t="n">
-        <v>707.9034888830636</v>
+        <v>707.9034888830627</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438704</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427898</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>41.32224937653498</v>
       </c>
       <c r="L4" t="n">
-        <v>68.23681171545688</v>
+        <v>68.23681171545775</v>
       </c>
       <c r="M4" t="n">
-        <v>707.903488883064</v>
+        <v>707.9034888830627</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438704</v>
+        <v>100.2304947438695</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427893</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>367.9914646450245</v>
       </c>
       <c r="F2" t="n">
-        <v>394.5986578414009</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>325.5074567455836</v>
+        <v>320.1061145869845</v>
       </c>
       <c r="I2" t="n">
-        <v>143.9578475744879</v>
+        <v>157.8967530017251</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.25939512250086</v>
+        <v>64.19830054973811</v>
       </c>
       <c r="S2" t="n">
         <v>177.9417458832737</v>
       </c>
       <c r="T2" t="n">
-        <v>217.1256745993586</v>
+        <v>203.1867691721214</v>
       </c>
       <c r="U2" t="n">
         <v>251.2365463408047</v>
@@ -27461,10 +27461,10 @@
         <v>158.7695935610785</v>
       </c>
       <c r="D3" t="n">
-        <v>135.1676776643282</v>
+        <v>133.5061601374015</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>143.7061750281637</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27506,7 +27506,7 @@
         <v>54.85152518778424</v>
       </c>
       <c r="S3" t="n">
-        <v>144.1901389129543</v>
+        <v>158.1290443401915</v>
       </c>
       <c r="T3" t="n">
         <v>197.2234671845994</v>
@@ -27515,7 +27515,7 @@
         <v>225.8933745481638</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>220.5231992491147</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>191.7437903500671</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.8930747547001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>154.9694331983173</v>
       </c>
       <c r="D4" t="n">
-        <v>136.3380851179018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>131.482142595694</v>
       </c>
       <c r="G4" t="n">
         <v>167.3792112354243</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.99589981290507</v>
+        <v>34.93480524014232</v>
       </c>
       <c r="R4" t="n">
         <v>149.7860719541821</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.5840929093538</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.6148909379392</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>359.4231544780376</v>
+        <v>366.299200219749</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>330.9767838522814</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>117.8591584987048</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>81.22873908524024</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>4.745378475469174</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
-        <v>100.5663383780076</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>141.4628730621541</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>170.6240678512685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>196.4338283571474</v>
       </c>
       <c r="X6" t="n">
-        <v>204.257271970093</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>124.5708253781651</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>97.7599374954066</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>112.014175476663</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H7" t="n">
-        <v>100.6032468099677</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I7" t="n">
         <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
-        <v>145.11520646895</v>
+        <v>89.85405166517774</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
@@ -27828,13 +27828,13 @@
         <v>224.8878160949084</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2799939522351</v>
+        <v>231.0188391484628</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>251.5868005003603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>259.2473492399355</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>258.4324035530318</v>
       </c>
       <c r="F8" t="n">
+        <v>283.3780792224815</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>338.1003603063244</v>
       </c>
       <c r="H8" t="n">
         <v>319.3873994455085</v>
       </c>
       <c r="I8" t="n">
-        <v>11.3602404982515</v>
+        <v>11.36024049825049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>26.66000694535946</v>
       </c>
       <c r="S8" t="n">
-        <v>40.82622235435725</v>
+        <v>164.3241888735863</v>
       </c>
       <c r="T8" t="n">
-        <v>91.01176267980452</v>
+        <v>214.5097291990336</v>
       </c>
       <c r="U8" t="n">
         <v>251.1887392289769</v>
@@ -27932,13 +27932,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>49.21053246908663</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>34.14711393617183</v>
+        <v>34.14711393617097</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>102.0999400724471</v>
       </c>
       <c r="I9" t="n">
-        <v>53.26415887875948</v>
+        <v>53.26415887875942</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.1900466103096</v>
+        <v>28.69208009107962</v>
       </c>
       <c r="T9" t="n">
-        <v>195.9346976654114</v>
+        <v>195.9346976654113</v>
       </c>
       <c r="U9" t="n">
-        <v>225.872339137078</v>
+        <v>102.3743726178481</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9956828591157</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.18472925807525</v>
+        <v>131.9053934329418</v>
       </c>
     </row>
     <row r="10">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>22.93599612733919</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>154.4047201490867</v>
       </c>
       <c r="I10" t="n">
-        <v>5.493743171391955</v>
+        <v>128.991709690621</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>31.15548687443333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>12.48861925088846</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7332182029229</v>
+        <v>14.23525168369287</v>
       </c>
       <c r="S10" t="n">
-        <v>85.18566508526625</v>
+        <v>208.6836316044953</v>
       </c>
       <c r="T10" t="n">
-        <v>224.1863331824473</v>
+        <v>115.4093242723095</v>
       </c>
       <c r="U10" t="n">
         <v>286.2710388512249</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>128.639676804598</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>160.5767526042222</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>95.08668683286568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28582,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221696</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221201</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605717</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221605</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31376,13 +31376,13 @@
         <v>197.3951887257905</v>
       </c>
       <c r="N6" t="n">
-        <v>163.8106038079154</v>
+        <v>186.6028668871055</v>
       </c>
       <c r="O6" t="n">
         <v>197.8573992482167</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>140.21234267537</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.96142098574477</v>
+        <v>1.961420985744773</v>
       </c>
       <c r="H8" t="n">
-        <v>20.08740267025863</v>
+        <v>20.08740267025867</v>
       </c>
       <c r="I8" t="n">
-        <v>75.6176825529253</v>
+        <v>75.61768255292544</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4731543888553</v>
+        <v>166.4731543888556</v>
       </c>
       <c r="K8" t="n">
-        <v>249.5001047154314</v>
+        <v>249.5001047154319</v>
       </c>
       <c r="L8" t="n">
-        <v>309.526942207918</v>
+        <v>309.5269422079186</v>
       </c>
       <c r="M8" t="n">
-        <v>344.4083626631565</v>
+        <v>344.4083626631572</v>
       </c>
       <c r="N8" t="n">
-        <v>349.9812500389039</v>
+        <v>349.9812500389045</v>
       </c>
       <c r="O8" t="n">
-        <v>330.4773701119043</v>
+        <v>330.4773701119049</v>
       </c>
       <c r="P8" t="n">
-        <v>282.0547895263302</v>
+        <v>282.0547895263308</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.8114004743456</v>
+        <v>211.811400474346</v>
       </c>
       <c r="R8" t="n">
-        <v>123.20911099579</v>
+        <v>123.2091109957902</v>
       </c>
       <c r="S8" t="n">
-        <v>44.69588071265898</v>
+        <v>44.69588071265906</v>
       </c>
       <c r="T8" t="n">
-        <v>8.586120365097733</v>
+        <v>8.586120365097749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1569136788595815</v>
+        <v>0.1569136788595818</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.049452747231271</v>
+        <v>1.049452747231273</v>
       </c>
       <c r="H9" t="n">
-        <v>10.13550416404938</v>
+        <v>10.1355041640494</v>
       </c>
       <c r="I9" t="n">
-        <v>36.1324739726556</v>
+        <v>36.13247397265566</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15027029872283</v>
+        <v>99.15027029872302</v>
       </c>
       <c r="K9" t="n">
-        <v>169.463604363218</v>
+        <v>169.4636043632183</v>
       </c>
       <c r="L9" t="n">
-        <v>175.4180311959875</v>
+        <v>227.8647291740533</v>
       </c>
       <c r="M9" t="n">
-        <v>265.6320004412474</v>
+        <v>265.6320004412483</v>
       </c>
       <c r="N9" t="n">
-        <v>254.8396786025624</v>
+        <v>202.3929806244979</v>
       </c>
       <c r="O9" t="n">
-        <v>249.6915051712927</v>
+        <v>249.6915051712932</v>
       </c>
       <c r="P9" t="n">
-        <v>200.3994460919082</v>
+        <v>200.3994460919086</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.9617226114864</v>
+        <v>133.9617226114867</v>
       </c>
       <c r="R9" t="n">
-        <v>65.15812758686786</v>
+        <v>65.15812758686799</v>
       </c>
       <c r="S9" t="n">
-        <v>19.4931244935282</v>
+        <v>19.49312449352823</v>
       </c>
       <c r="T9" t="n">
-        <v>4.230031029410251</v>
+        <v>4.230031029410259</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06904294389679415</v>
+        <v>0.06904294389679429</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8798259298760868</v>
+        <v>0.8798259298760884</v>
       </c>
       <c r="H10" t="n">
-        <v>7.82245235835285</v>
+        <v>7.822452358352864</v>
       </c>
       <c r="I10" t="n">
-        <v>26.45876523663723</v>
+        <v>26.45876523663728</v>
       </c>
       <c r="J10" t="n">
-        <v>62.20369324223933</v>
+        <v>62.20369324223945</v>
       </c>
       <c r="K10" t="n">
-        <v>102.2197762165126</v>
+        <v>102.2197762165128</v>
       </c>
       <c r="L10" t="n">
-        <v>130.8061205199411</v>
+        <v>130.8061205199414</v>
       </c>
       <c r="M10" t="n">
-        <v>137.9167137168487</v>
+        <v>137.916713716849</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6373625236743</v>
+        <v>134.6373625236746</v>
       </c>
       <c r="O10" t="n">
-        <v>124.3593959792127</v>
+        <v>124.359395979213</v>
       </c>
       <c r="P10" t="n">
-        <v>106.4109470097405</v>
+        <v>106.4109470097407</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.67342400080578</v>
+        <v>73.67342400080592</v>
       </c>
       <c r="R10" t="n">
-        <v>39.56017317424658</v>
+        <v>39.56017317424666</v>
       </c>
       <c r="S10" t="n">
-        <v>15.33296643247689</v>
+        <v>15.33296643247692</v>
       </c>
       <c r="T10" t="n">
-        <v>3.759256245834188</v>
+        <v>3.759256245834195</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04799050526596842</v>
+        <v>0.04799050526596851</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601101</v>
+        <v>4.709819673601096</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226728</v>
+        <v>48.23444073226724</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665066</v>
+        <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223018</v>
+        <v>399.7400575223014</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058365</v>
+        <v>599.1067243058359</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418063</v>
+        <v>743.2448681418056</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622098</v>
+        <v>827.003123762209</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098291</v>
+        <v>840.3848989098282</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304581</v>
+        <v>793.5516295304573</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384307</v>
+        <v>677.2779563384302</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775912</v>
+        <v>508.6075392775907</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718454</v>
+        <v>295.8532100718451</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121852</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118883</v>
+        <v>20.61723562118881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.376785573888088</v>
+        <v>0.3767855738880876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681949</v>
+        <v>2.519975686681947</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137567</v>
+        <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146186</v>
+        <v>86.76232079146178</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667363</v>
+        <v>238.0824397667361</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744269</v>
+        <v>406.9208107744265</v>
       </c>
       <c r="L15" t="n">
-        <v>445.0681241756209</v>
+        <v>547.1552472332885</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755096</v>
+        <v>354.7263310039036</v>
       </c>
       <c r="N15" t="n">
-        <v>655.403676511197</v>
+        <v>655.4036765111964</v>
       </c>
       <c r="O15" t="n">
-        <v>599.566320506297</v>
+        <v>599.5663205062963</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068365</v>
+        <v>481.204830906836</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>321.6726858999622</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762302</v>
+        <v>46.80744312762297</v>
       </c>
       <c r="T15" t="n">
-        <v>10.15727042131891</v>
+        <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238125</v>
+        <v>0.1657878741238124</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244429</v>
+        <v>2.112662964244427</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482776</v>
+        <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291431</v>
+        <v>63.53353714291426</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720812</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913073</v>
+        <v>245.4530243913071</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023037</v>
+        <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587881</v>
+        <v>331.1695226587878</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102409</v>
+        <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824764</v>
+        <v>298.6153069824761</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118898</v>
+        <v>255.5169825118896</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150495</v>
+        <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320859</v>
+        <v>94.99300928320851</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869609</v>
+        <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408014</v>
+        <v>9.026832665408005</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860599</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>545.4906045327996</v>
+        <v>334.5330873496889</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303035</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155584</v>
@@ -32798,19 +32798,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>596.9368339155584</v>
+        <v>382.529648770071</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>475.6116682468181</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
@@ -33047,7 +33047,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33275,16 +33275,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>366.6975250682018</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>211.6584993001651</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33743,22 +33743,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>591.0665301174799</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>209.0440289417422</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -34220,19 +34220,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O42" t="n">
-        <v>559.3781234260266</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34372,7 +34372,7 @@
         <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869759</v>
       </c>
       <c r="M44" t="n">
         <v>902.2459874654296</v>
@@ -34387,7 +34387,7 @@
         <v>738.8984405829625</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972021</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
         <v>322.770693358156</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
         <v>443.943509024727</v>
@@ -34457,13 +34457,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>13.93890542723724</v>
+        <v>13.37571732916705</v>
       </c>
       <c r="N2" t="n">
         <v>13.93890542723724</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.37571732916705</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>13.93890542723724</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="L4" t="n">
-        <v>13.37571732916705</v>
+        <v>13.93890542723724</v>
       </c>
       <c r="M4" t="n">
         <v>13.93890542723724</v>
       </c>
       <c r="N4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.37571732916705</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.780617298235428</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>55.26115480377223</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>42.49219790156762</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>55.26115480377223</v>
       </c>
       <c r="N6" t="n">
-        <v>32.46889172458208</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="O6" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>6.237935261039771</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="L7" t="n">
         <v>53.02838087230671</v>
       </c>
       <c r="M7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>29.41025367045089</v>
+        <v>29.41025367045134</v>
       </c>
       <c r="L8" t="n">
-        <v>73.76052723793077</v>
+        <v>73.76052723793134</v>
       </c>
       <c r="M8" t="n">
-        <v>114.0621294358838</v>
+        <v>114.0621294358844</v>
       </c>
       <c r="N8" t="n">
-        <v>120.5681864423129</v>
+        <v>120.5681864423136</v>
       </c>
       <c r="O8" t="n">
-        <v>100.3791586902176</v>
+        <v>100.3791586902182</v>
       </c>
       <c r="P8" t="n">
-        <v>50.8217937710607</v>
+        <v>50.82179377106127</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>31.62216538885897</v>
+        <v>31.62216538885929</v>
       </c>
       <c r="L9" t="n">
-        <v>36.86365141611326</v>
+        <v>89.31034939417913</v>
       </c>
       <c r="M9" t="n">
-        <v>123.4979665192291</v>
+        <v>123.49796651923</v>
       </c>
       <c r="N9" t="n">
-        <v>123.4979665192291</v>
+        <v>71.05126854116462</v>
       </c>
       <c r="O9" t="n">
-        <v>107.0952607268483</v>
+        <v>107.0952607268487</v>
       </c>
       <c r="P9" t="n">
-        <v>66.42503867757793</v>
+        <v>66.42503867757833</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>79.95028439062995</v>
       </c>
       <c r="L10" t="n">
-        <v>123.4979665192291</v>
+        <v>123.49796651923</v>
       </c>
       <c r="M10" t="n">
-        <v>123.4979665192291</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>123.4979665192291</v>
+        <v>58.36632554413608</v>
       </c>
       <c r="O10" t="n">
-        <v>14.81864341553544</v>
+        <v>123.49796651923</v>
       </c>
       <c r="P10" t="n">
-        <v>103.689506274634</v>
+        <v>103.6895062746342</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934836</v>
       </c>
       <c r="N13" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956155</v>
+        <v>218.6941529956151</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608559</v>
+        <v>379.0168732608553</v>
       </c>
       <c r="L14" t="n">
-        <v>507.478453171819</v>
+        <v>507.4784531718183</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349371</v>
+        <v>596.6568905349363</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132382</v>
+        <v>610.9718353132373</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087713</v>
+        <v>563.4534181087705</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831612</v>
+        <v>446.0449605831606</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031417</v>
+        <v>286.3018494031412</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771329</v>
+        <v>80.267672257713</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000696</v>
+        <v>111.2448131000694</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000679</v>
+        <v>269.0793718000675</v>
       </c>
       <c r="L15" t="n">
-        <v>306.5137443957468</v>
+        <v>408.6008674534143</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534913</v>
+        <v>212.5922970818853</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278637</v>
+        <v>524.0619644278631</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618525</v>
+        <v>456.9700760618518</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925062</v>
+        <v>347.2304234925057</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>181.6909118139407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.0060914554083</v>
+        <v>56.00609145540824</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654243</v>
+        <v>223.1835325654242</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626198</v>
+        <v>341.6853899626195</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206287</v>
+        <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894694</v>
+        <v>367.4272239894692</v>
       </c>
       <c r="O16" t="n">
-        <v>323.200434896516</v>
+        <v>323.2004348965157</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767832</v>
+        <v>252.795541776783</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335509</v>
+        <v>90.74467096335489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>406.9362247529255</v>
+        <v>195.9787075698147</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>112.0051939082852</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356842</v>
@@ -36446,19 +36446,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553089</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P26" t="n">
         <v>507.665444827693</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3824541356842</v>
+        <v>243.9752689901968</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>344.2699561634848</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
@@ -36695,7 +36695,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193539</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
         <v>277.1256801414978</v>
@@ -36759,19 +36759,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116848</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
         <v>433.5251384721831</v>
@@ -36838,7 +36838,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>224.1012806237574</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>69.06225485572071</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37233,19 +37233,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010904</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.19622300144031e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>255.0635279116842</v>
@@ -37391,22 +37391,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>459.7248180341467</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>69.06225485572071</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,19 +37467,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37868,19 +37868,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O42" t="n">
-        <v>416.7818789815822</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38020,7 +38020,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169886</v>
       </c>
       <c r="M44" t="n">
         <v>671.8997542381569</v>
@@ -38035,7 +38035,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38105,13 +38105,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
